--- a/INTLINE/data/223/SPSE/BVSP Index - Weekly.xlsx
+++ b/INTLINE/data/223/SPSE/BVSP Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BHM2"/>
+  <dimension ref="A1:BHQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8219,15 +8219,35 @@
       </c>
       <c r="BHK1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-09</t>
+        </is>
+      </c>
+      <c r="BHL1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="BHM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-23</t>
+        </is>
+      </c>
+      <c r="BHN1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="BHO1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="BHL1" s="1" t="inlineStr">
+      <c r="BHP1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="BHM1" s="1" t="inlineStr">
+      <c r="BHQ1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -12944,19 +12964,31 @@
         <v>121570</v>
       </c>
       <c r="BHJ2" t="n">
-        <v>118885</v>
-      </c>
-      <c r="BHK2" t="inlineStr">
+        <v>118322</v>
+      </c>
+      <c r="BHK2" t="n">
+        <v>116182</v>
+      </c>
+      <c r="BHL2" t="n">
+        <v>111078</v>
+      </c>
+      <c r="BHM2" t="n">
+        <v>107876</v>
+      </c>
+      <c r="BHN2" t="n">
+        <v>106528</v>
+      </c>
+      <c r="BHO2" t="inlineStr">
         <is>
           <t>BVSP</t>
         </is>
       </c>
-      <c r="BHL2" t="inlineStr">
+      <c r="BHP2" t="inlineStr">
         <is>
           <t>Bovespa Index, Close Price</t>
         </is>
       </c>
-      <c r="BHM2" t="inlineStr">
+      <c r="BHQ2" t="inlineStr">
         <is>
           <t>Index: 1992.03.11=1.51</t>
         </is>
